--- a/result/log.xlsx
+++ b/result/log.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,6 +470,60 @@
         </is>
       </c>
       <c r="E2" t="inlineStr">
+        <is>
+          <t>Not started</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>thang truong &lt;truongthoithang@gmail.com&gt;</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2025-07-02</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>00:46:09</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0 days, 0 hours, 10 minutes</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Not started</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>thang truong &lt;truongthoithang@gmail.com&gt;</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2025-07-02</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>00:15:41</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0 days, 0 hours, 40 minutes</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>Not started</t>
         </is>

--- a/result/log.xlsx
+++ b/result/log.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,6 +524,60 @@
         </is>
       </c>
       <c r="E4" t="inlineStr">
+        <is>
+          <t>Not started</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>thang truong &lt;truongthoithang@gmail.com&gt;</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2025-07-02</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>00:46:09</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0 days, 0 hours, 14 minutes</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Not started</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>thang truong &lt;truongthoithang@gmail.com&gt;</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2025-07-02</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>00:15:41</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0 days, 0 hours, 45 minutes</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Not started</t>
         </is>

--- a/result/log.xlsx
+++ b/result/log.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,6 +497,60 @@
         </is>
       </c>
       <c r="E3" t="inlineStr">
+        <is>
+          <t>Not started</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>thang truong &lt;truongthoithang@gmail.com&gt;</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2025-07-02</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>00:46:09</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0 days, 1 hours, 44 minutes</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Not started</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>thang truong &lt;truongthoithang@gmail.com&gt;</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2025-07-02</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>00:15:41</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0 days, 2 hours, 14 minutes</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>Not started</t>
         </is>

--- a/result/log.xlsx
+++ b/result/log.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -551,6 +551,60 @@
         </is>
       </c>
       <c r="E5" t="inlineStr">
+        <is>
+          <t>Not started</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>thang truong &lt;truongthoithang@gmail.com&gt;</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2025-07-02</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>00:46:09</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0 days, 2 hours, 56 minutes</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Not started</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>thang truong &lt;truongthoithang@gmail.com&gt;</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2025-07-02</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>00:15:41</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0 days, 3 hours, 26 minutes</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Not started</t>
         </is>

--- a/result/log.xlsx
+++ b/result/log.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -610,6 +610,60 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>thang truong &lt;truongthoithang@gmail.com&gt;</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2025-07-02</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>00:46:09</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0 days, 3 hours, 32 minutes</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Not started</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>thang truong &lt;truongthoithang@gmail.com&gt;</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2025-07-02</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>00:15:41</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0 days, 4 hours, 2 minutes</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Not started</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation sqref="E2:E1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">

--- a/result/log.xlsx
+++ b/result/log.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -664,6 +664,60 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>thang truong &lt;truongthoithang@gmail.com&gt;</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2025-07-02</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>00:46:09</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0 days, 4 hours, 7 minutes</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Not started</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>thang truong &lt;truongthoithang@gmail.com&gt;</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2025-07-02</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>00:15:41</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0 days, 4 hours, 37 minutes</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Not started</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation sqref="E2:E1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">

--- a/result/log.xlsx
+++ b/result/log.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,6 +718,60 @@
         </is>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>thang truong &lt;truongthoithang@gmail.com&gt;</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2025-07-02</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>00:46:09</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0 days, 4 hours, 43 minutes</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Not started</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>thang truong &lt;truongthoithang@gmail.com&gt;</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2025-07-02</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>00:15:41</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0 days, 5 hours, 14 minutes</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Not started</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation sqref="E2:E1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">

--- a/result/log.xlsx
+++ b/result/log.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -772,6 +772,60 @@
         </is>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>thang truong &lt;truongthoithang@gmail.com&gt;</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2025-07-02</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>00:46:09</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0 days, 5 hours, 3 minutes</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Not started</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>thang truong &lt;truongthoithang@gmail.com&gt;</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2025-07-02</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>00:15:41</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0 days, 5 hours, 34 minutes</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Not started</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation sqref="E2:E1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">

--- a/result/log.xlsx
+++ b/result/log.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -826,6 +826,60 @@
         </is>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>thang truong &lt;truongthoithang@gmail.com&gt;</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2025-07-02</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>00:46:09</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0 days, 5 hours, 52 minutes</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Not started</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>thang truong &lt;truongthoithang@gmail.com&gt;</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2025-07-02</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>00:15:41</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0 days, 6 hours, 23 minutes</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Not started</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation sqref="E2:E1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">

--- a/result/log.xlsx
+++ b/result/log.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -880,6 +880,60 @@
         </is>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>thang truong &lt;truongthoithang@gmail.com&gt;</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2025-07-02</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>00:46:09</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0 days, 6 hours, 13 minutes</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Not started</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>thang truong &lt;truongthoithang@gmail.com&gt;</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2025-07-02</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>00:15:41</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0 days, 6 hours, 43 minutes</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Not started</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation sqref="E2:E1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">

--- a/result/log.xlsx
+++ b/result/log.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -934,6 +934,60 @@
         </is>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>thang truong &lt;truongthoithang@gmail.com&gt;</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2025-07-02</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>00:46:09</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0 days, 6 hours, 42 minutes</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Not started</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>thang truong &lt;truongthoithang@gmail.com&gt;</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2025-07-02</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>00:15:41</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0 days, 7 hours, 13 minutes</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Not started</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation sqref="E2:E1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">

--- a/result/log.xlsx
+++ b/result/log.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -988,6 +988,60 @@
         </is>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>thang truong &lt;truongthoithang@gmail.com&gt;</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2025-07-02</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>00:46:09</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0 days, 6 hours, 59 minutes</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Not started</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>thang truong &lt;truongthoithang@gmail.com&gt;</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2025-07-02</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>00:15:41</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0 days, 7 hours, 29 minutes</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Not started</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation sqref="E2:E1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">

--- a/result/log.xlsx
+++ b/result/log.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1042,6 +1042,60 @@
         </is>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>thang truong &lt;truongthoithang@gmail.com&gt;</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2025-07-02</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>00:46:09</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0 days, 7 hours, 49 minutes</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Not started</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>thang truong &lt;truongthoithang@gmail.com&gt;</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2025-07-02</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>00:15:41</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0 days, 8 hours, 20 minutes</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Not started</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation sqref="E2:E1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">

--- a/result/log.xlsx
+++ b/result/log.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1096,6 +1096,60 @@
         </is>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>thang truong &lt;truongthoithang@gmail.com&gt;</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2025-07-02</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>00:46:09</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0 days, 8 hours, 13 minutes</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Not started</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>thang truong &lt;truongthoithang@gmail.com&gt;</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2025-07-02</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>00:15:41</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0 days, 8 hours, 44 minutes</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Not started</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation sqref="E2:E1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">

--- a/result/log.xlsx
+++ b/result/log.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1150,6 +1150,60 @@
         </is>
       </c>
     </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>thang truong &lt;truongthoithang@gmail.com&gt;</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2025-07-02</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>00:46:09</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0 days, 8 hours, 47 minutes</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Not started</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>thang truong &lt;truongthoithang@gmail.com&gt;</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2025-07-02</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>00:15:41</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0 days, 9 hours, 17 minutes</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Not started</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation sqref="E2:E1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">

--- a/result/log.xlsx
+++ b/result/log.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1204,6 +1204,60 @@
         </is>
       </c>
     </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>thang truong &lt;truongthoithang@gmail.com&gt;</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2025-07-02</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>00:46:09</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0 days, 9 hours, 8 minutes</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Not started</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>thang truong &lt;truongthoithang@gmail.com&gt;</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2025-07-02</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>00:15:41</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0 days, 9 hours, 38 minutes</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Not started</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation sqref="E2:E1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">

--- a/result/log.xlsx
+++ b/result/log.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1258,6 +1258,60 @@
         </is>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>thang truong &lt;truongthoithang@gmail.com&gt;</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2025-07-02</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>00:46:09</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0 days, 9 hours, 43 minutes</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Not started</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>thang truong &lt;truongthoithang@gmail.com&gt;</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2025-07-02</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>00:15:41</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0 days, 10 hours, 13 minutes</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Not started</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation sqref="E2:E1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">

--- a/result/log.xlsx
+++ b/result/log.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1312,6 +1312,60 @@
         </is>
       </c>
     </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>thang truong &lt;truongthoithang@gmail.com&gt;</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2025-07-02</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>00:46:09</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0 days, 10 hours, 4 minutes</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Not started</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>thang truong &lt;truongthoithang@gmail.com&gt;</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2025-07-02</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>00:15:41</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0 days, 10 hours, 35 minutes</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Not started</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation sqref="E2:E1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">

--- a/result/log.xlsx
+++ b/result/log.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1366,6 +1366,60 @@
         </is>
       </c>
     </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>thang truong &lt;truongthoithang@gmail.com&gt;</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2025-07-02</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>00:46:09</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0 days, 10 hours, 37 minutes</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Not started</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>thang truong &lt;truongthoithang@gmail.com&gt;</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2025-07-02</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>00:15:41</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0 days, 11 hours, 7 minutes</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Not started</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation sqref="E2:E1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">

--- a/result/log.xlsx
+++ b/result/log.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1420,6 +1420,60 @@
         </is>
       </c>
     </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>thang truong &lt;truongthoithang@gmail.com&gt;</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2025-07-02</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>00:46:09</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0 days, 10 hours, 56 minutes</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Not started</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>thang truong &lt;truongthoithang@gmail.com&gt;</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2025-07-02</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>00:15:41</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0 days, 11 hours, 26 minutes</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Not started</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation sqref="E2:E1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">

--- a/result/log.xlsx
+++ b/result/log.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1474,6 +1474,60 @@
         </is>
       </c>
     </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>thang truong &lt;truongthoithang@gmail.com&gt;</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2025-07-02</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>00:46:09</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0 days, 11 hours, 9 minutes</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Not started</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>thang truong &lt;truongthoithang@gmail.com&gt;</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2025-07-02</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>00:15:41</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0 days, 11 hours, 40 minutes</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Not started</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation sqref="E2:E1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">

--- a/result/log.xlsx
+++ b/result/log.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1528,6 +1528,60 @@
         </is>
       </c>
     </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>thang truong &lt;truongthoithang@gmail.com&gt;</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2025-07-02</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>00:46:09</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0 days, 12 hours, 10 minutes</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Not started</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>thang truong &lt;truongthoithang@gmail.com&gt;</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2025-07-02</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>00:15:41</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0 days, 12 hours, 40 minutes</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Not started</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation sqref="E2:E1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">

--- a/result/log.xlsx
+++ b/result/log.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1582,6 +1582,60 @@
         </is>
       </c>
     </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>thang truong &lt;truongthoithang@gmail.com&gt;</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2025-07-02</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>00:46:09</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0 days, 12 hours, 52 minutes</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Not started</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>thang truong &lt;truongthoithang@gmail.com&gt;</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2025-07-02</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>00:15:41</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0 days, 13 hours, 22 minutes</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Not started</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation sqref="E2:E1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">

--- a/result/log.xlsx
+++ b/result/log.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1636,6 +1636,60 @@
         </is>
       </c>
     </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>thang truong &lt;truongthoithang@gmail.com&gt;</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2025-07-02</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>00:46:09</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0 days, 13 hours, 9 minutes</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Not started</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>thang truong &lt;truongthoithang@gmail.com&gt;</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2025-07-02</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>00:15:41</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0 days, 13 hours, 39 minutes</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Not started</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation sqref="E2:E1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">

--- a/result/log.xlsx
+++ b/result/log.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1690,6 +1690,60 @@
         </is>
       </c>
     </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>thang truong &lt;truongthoithang@gmail.com&gt;</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2025-07-02</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>00:46:09</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0 days, 13 hours, 41 minutes</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Not started</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>thang truong &lt;truongthoithang@gmail.com&gt;</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2025-07-02</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>00:15:41</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0 days, 14 hours, 11 minutes</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Not started</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation sqref="E2:E1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">

--- a/result/log.xlsx
+++ b/result/log.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1744,6 +1744,60 @@
         </is>
       </c>
     </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>thang truong &lt;truongthoithang@gmail.com&gt;</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2025-07-02</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>00:46:09</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0 days, 14 hours, 2 minutes</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Not started</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>thang truong &lt;truongthoithang@gmail.com&gt;</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>2025-07-02</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>00:15:41</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0 days, 14 hours, 33 minutes</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Not started</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation sqref="E2:E1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">

--- a/result/log.xlsx
+++ b/result/log.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1798,6 +1798,60 @@
         </is>
       </c>
     </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>thang truong &lt;truongthoithang@gmail.com&gt;</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>2025-07-02</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>00:46:09</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0 days, 14 hours, 42 minutes</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Not started</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>thang truong &lt;truongthoithang@gmail.com&gt;</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>2025-07-02</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>00:15:41</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0 days, 15 hours, 13 minutes</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Not started</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation sqref="E2:E1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
